--- a/data_excel/825.xlsx
+++ b/data_excel/825.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>1</t>
   </si>
@@ -119,6 +119,16 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,14 +209,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -509,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -689,47 +739,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
     </row>
